--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_448__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_448__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5426,13 +5426,13 @@
                   <c:v>97.22178649902344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.39417266845703</c:v>
+                  <c:v>57.3941764831543</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>25.72664642333984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.79829025268555</c:v>
+                  <c:v>55.79829406738281</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>96.93266296386719</c:v>
@@ -5444,13 +5444,13 @@
                   <c:v>89.32508850097656</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.45309448242188</c:v>
+                  <c:v>97.45307922363281</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>49.91382217407227</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.44175720214844</c:v>
+                  <c:v>97.4417724609375</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>90.25082397460938</c:v>
@@ -5462,7 +5462,7 @@
                   <c:v>41.34595489501953</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71.49594879150391</c:v>
+                  <c:v>71.49595642089844</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>73.91641235351562</c:v>
@@ -5477,7 +5477,7 @@
                   <c:v>81.74778747558594</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>57.77790832519531</c:v>
+                  <c:v>57.77790451049805</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>63.27058410644531</c:v>
@@ -5495,7 +5495,7 @@
                   <c:v>94.68132019042969</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>87.33126831054688</c:v>
+                  <c:v>87.33128356933594</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>97.4359130859375</c:v>
@@ -5537,13 +5537,13 @@
                   <c:v>93.99171447753906</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37.41670989990234</c:v>
+                  <c:v>37.41671371459961</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>86.64242553710938</c:v>
+                  <c:v>86.64244079589844</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86.91429138183594</c:v>
+                  <c:v>86.914306640625</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>78.82038879394531</c:v>
@@ -5558,7 +5558,7 @@
                   <c:v>84.89242553710938</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96.53349304199219</c:v>
+                  <c:v>96.53350830078125</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>97.34573364257812</c:v>
@@ -5591,7 +5591,7 @@
                   <c:v>50.28787994384766</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>96.75736999511719</c:v>
+                  <c:v>96.75738525390625</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>45.73827743530273</c:v>
@@ -5633,49 +5633,49 @@
                   <c:v>83.27397155761719</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>97.12040710449219</c:v>
+                  <c:v>97.12042236328125</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>97.41380310058594</c:v>
+                  <c:v>97.413818359375</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27.14793014526367</c:v>
+                  <c:v>27.1479320526123</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>64.8890380859375</c:v>
+                  <c:v>64.88903045654297</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>87.197509765625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>55.43869018554688</c:v>
+                  <c:v>55.43869400024414</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>81.37774658203125</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>61.03593444824219</c:v>
+                  <c:v>61.03593826293945</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>52.81310653686523</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>97.16871643066406</c:v>
+                  <c:v>97.16873168945312</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>97.35455322265625</c:v>
+                  <c:v>97.35456848144531</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>84.77581787109375</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>60.25203704833984</c:v>
+                  <c:v>60.25204467773438</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>91.72274780273438</c:v>
+                  <c:v>91.72276306152344</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>95.89295959472656</c:v>
+                  <c:v>95.89297485351562</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>81.77041625976562</c:v>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>57.39417266845703</v>
+        <v>57.3941764831543</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6539,7 +6539,7 @@
         <v>58.4074</v>
       </c>
       <c r="F7">
-        <v>55.79829025268555</v>
+        <v>55.79829406738281</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6631,7 +6631,7 @@
         <v>97.2368</v>
       </c>
       <c r="F11">
-        <v>97.45309448242188</v>
+        <v>97.45307922363281</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>97.3323</v>
       </c>
       <c r="F13">
-        <v>97.44175720214844</v>
+        <v>97.4417724609375</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>73.52419999999999</v>
       </c>
       <c r="F17">
-        <v>71.49594879150391</v>
+        <v>71.49595642089844</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>57.77790832519531</v>
+        <v>57.77790451049805</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>89.6236</v>
       </c>
       <c r="F28">
-        <v>87.33126831054688</v>
+        <v>87.33128356933594</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>38.6711</v>
       </c>
       <c r="F42">
-        <v>37.41670989990234</v>
+        <v>37.41671371459961</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>86.58159999999999</v>
       </c>
       <c r="F43">
-        <v>86.64242553710938</v>
+        <v>86.64244079589844</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>84.637</v>
       </c>
       <c r="F44">
-        <v>86.91429138183594</v>
+        <v>86.914306640625</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>96.76430000000001</v>
       </c>
       <c r="F49">
-        <v>96.53349304199219</v>
+        <v>96.53350830078125</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>97.3549</v>
       </c>
       <c r="F60">
-        <v>96.75736999511719</v>
+        <v>96.75738525390625</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>86.4927</v>
       </c>
       <c r="F74">
-        <v>97.12040710449219</v>
+        <v>97.12042236328125</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>97.50060000000001</v>
       </c>
       <c r="F75">
-        <v>97.41380310058594</v>
+        <v>97.413818359375</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>28.0807</v>
       </c>
       <c r="F76">
-        <v>27.14793014526367</v>
+        <v>27.1479320526123</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>64.7646</v>
       </c>
       <c r="F77">
-        <v>64.8890380859375</v>
+        <v>64.88903045654297</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>57.9591</v>
       </c>
       <c r="F79">
-        <v>55.43869018554688</v>
+        <v>55.43869400024414</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>61.7399</v>
       </c>
       <c r="F81">
-        <v>61.03593444824219</v>
+        <v>61.03593826293945</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>97.51990000000001</v>
       </c>
       <c r="F83">
-        <v>97.16871643066406</v>
+        <v>97.16873168945312</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>97.5826</v>
       </c>
       <c r="F84">
-        <v>97.35455322265625</v>
+        <v>97.35456848144531</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>59.665</v>
       </c>
       <c r="F86">
-        <v>60.25203704833984</v>
+        <v>60.25204467773438</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>92.9709</v>
       </c>
       <c r="F87">
-        <v>91.72274780273438</v>
+        <v>91.72276306152344</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>95.86490000000001</v>
       </c>
       <c r="F88">
-        <v>95.89295959472656</v>
+        <v>95.89297485351562</v>
       </c>
     </row>
     <row r="89" spans="1:6">
